--- a/Bazaar.xlsx
+++ b/Bazaar.xlsx
@@ -2,25 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liamj\Downloads\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD9A98F-4515-4146-B785-99F77D97E4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7EE0AF-CCF1-437C-9C85-3E5563B08169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RawData" sheetId="1" r:id="rId1"/>
-    <sheet name="Charts" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId1"/>
+    <sheet name="CleanData" sheetId="4" r:id="rId2"/>
+    <sheet name="RawData" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RawData!D3:F24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RawData!D3:F24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <pivotCaches>
+    <pivotCache cacheId="33" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>Juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Raw Data</t>
@@ -289,14 +289,26 @@
   <si>
     <t>TOTAL SALES (ALL-IN-ALL)_x000D_</t>
   </si>
+  <si>
+    <t>Sum of Price</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="yyyy\/m\/d"/>
-    <numFmt numFmtId="170" formatCode="[$Php-3409]#,##0.00;\-[$Php-3409]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="yyyy\/m\/d"/>
+    <numFmt numFmtId="165" formatCode="[$Php-3409]#,##0.00;\-[$Php-3409]#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -847,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
@@ -893,73 +905,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -970,6 +982,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,38 +1025,226 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Bazaar.xlsx]CleanData!PivotTable5</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Droid Sans"/>
-                <a:ea typeface="Droid Sans"/>
-                <a:cs typeface="Lucida Sans"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>Day 1 Sales</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales Per Product</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1044,123 +1256,110 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$C$2</c:f>
+              <c:f>CleanData!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quantity Sold</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="4F81BD"/>
-                    </a:solidFill>
-                    <a:latin typeface="Droid Sans"/>
-                    <a:ea typeface="Droid Sans"/>
-                    <a:cs typeface="Lucida Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$3:$B$9</c:f>
+              <c:f>CleanData!$G$3:$G$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Banana Loaf</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Brownies</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cupcake</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tulip Cake</c:v>
+                <c:pt idx="3">
+                  <c:v>Egg Tart</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Mini Cupcake</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Brownies</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Egg Tart</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Juice</c:v>
+                  <c:v>Tulip Cake</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$C$3:$C$9</c:f>
+              <c:f>CleanData!$H$3:$H$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>[$Php-3409]#,##0.00;\-[$Php-3409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5BD8-42A0-802D-FB21DD4EB4E2}"/>
+              <c16:uniqueId val="{00000000-84DF-456F-B817-7053656838BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1172,44 +1371,56 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1776670880"/>
-        <c:axId val="1"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1643779648"/>
+        <c:axId val="1643778688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1776670880"/>
+        <c:axId val="1643779648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Droid Sans"/>
-                <a:ea typeface="Droid Sans"/>
-                <a:cs typeface="Lucida Sans"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="1643778688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="1643778688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,41 +1436,50 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="12700">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="D8D8D8"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$Php-3409]#,##0.00;\-[$Php-3409]#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
+          <a:noFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Droid Sans"/>
-                <a:ea typeface="Droid Sans"/>
-                <a:cs typeface="Lucida Sans"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1776670880"/>
+        <c:crossAx val="1643779648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1268,38 +1488,74 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="12700">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="D8D8D8"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Droid Sans"/>
-          <a:ea typeface="Droid Sans"/>
-          <a:cs typeface="Lucida Sans"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1307,6 +1563,22 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1323,117 +1595,143 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Bazaar.xlsx]CleanData!PivotTable10</c:name>
+    <c:fmtId val="30"/>
+  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Droid Sans"/>
-                <a:ea typeface="Droid Sans"/>
-                <a:cs typeface="Lucida Sans"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>Customer Type - Day 1</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Total Sales Per Day</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$F$2</c:f>
+              <c:f>CleanData!$H$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quantity</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5B9BD5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$E$3:$E$7</c:f>
+              <c:f>CleanData!$G$13:$G$15</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Child</c:v>
+                  <c:v>2026/2/14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Student</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Teenager</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Adult</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Elderly</c:v>
+                  <c:v>2026/2/15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$F$3:$F$7</c:f>
+              <c:f>CleanData!$H$13:$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>[$Php-3409]#,##0.00;\-[$Php-3409]#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3850</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F92E-480F-A9C6-67B9C23A078F}"/>
+              <c16:uniqueId val="{00000000-BF1D-4818-987B-AE787E336190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1445,47 +1743,56 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1888080496"/>
-        <c:axId val="1"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1620635232"/>
+        <c:axId val="1620635712"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1888080496"/>
+        <c:axId val="1620635232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="D8D8D8"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Droid Sans"/>
-                <a:ea typeface="Droid Sans"/>
-                <a:cs typeface="Lucida Sans"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="1620635712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1493,49 +1800,58 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="1620635712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="12700">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="D8D8D8"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$Php-3409]#,##0.00;\-[$Php-3409]#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
+          <a:noFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Droid Sans"/>
-                <a:ea typeface="Droid Sans"/>
-                <a:cs typeface="Lucida Sans"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888080496"/>
+        <c:crossAx val="1620635232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1544,38 +1860,43 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="12700">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="D8D8D8"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Droid Sans"/>
-          <a:ea typeface="Droid Sans"/>
-          <a:cs typeface="Lucida Sans"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1583,7 +1904,1929 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Bazaar.xlsx]CleanData!PivotTable15</c:name>
+    <c:fmtId val="19"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Customer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Type Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CleanData!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>CleanData!$G$19:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Adult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Student</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CleanData!$H$19:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>[$Php-3409]#,##0.00;\-[$Php-3409]#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC71-4097-9C93-1A2DCA53D17C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1591,26 +3834,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504817</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>154725</xdr:rowOff>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>297882</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161921</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D1964E-01B6-4F88-8F3D-143D0FE2795E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1626,23 +3871,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476241</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47622</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38098</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94995C5-6F6A-6D9B-A871-55B9AC85773A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +3905,833 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296200A4-493C-602E-1BB3-88A1034306CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Liam Jedrek Gabison" refreshedDate="46070.891322800926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{C6F0942E-3726-4936-BDD3-9D99F3E63AD0}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:E33" sheet="CleanData"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Date" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2026-02-14T00:00:00" maxDate="2026-02-16T00:00:00" count="2">
+        <d v="2026-02-14T00:00:00"/>
+        <d v="2026-02-15T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Egg Tart"/>
+        <s v="Banana Loaf"/>
+        <s v="Tulip Cake"/>
+        <s v="Mini Cupcake"/>
+        <s v="Brownies"/>
+        <s v="Cupcake"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="90" maxValue="250"/>
+    </cacheField>
+    <cacheField name="Customer Type" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Adult"/>
+        <s v="Student"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="150"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="130"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="130"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="150"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="130"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="140"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35E8E99C-A6B3-4353-B9EF-0C616FC9B79D}" name="PivotTable15" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="G18:H21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Price" fld="2" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="16">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDBAEB45-BB2B-4AFD-BF0D-9CD7512F960E}" name="PivotTable10" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="31">
+  <location ref="G12:H15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Price" fld="2" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="21" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="22" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="25" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DDA685B-5E6F-435E-823C-DB76D4DF5453}" name="PivotTable5" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Products">
+  <location ref="G2:H9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Price" fld="2" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1979,11 +5050,601 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0D8C13-FFB1-46DA-8B57-D23A929CB84C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D6B60C-E056-4C07-997E-047C95DB410E}">
+  <dimension ref="B2:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17">
+        <v>250</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="21">
+        <v>150</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="43">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="17">
+        <v>250</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="21">
+        <v>130</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="43">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17">
+        <v>150</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="43">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21">
+        <v>150</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="43">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17">
+        <v>250</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="43">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="21">
+        <v>250</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17">
+        <v>250</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="21">
+        <v>250</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="17">
+        <v>150</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="44">
+        <v>46067</v>
+      </c>
+      <c r="H13" s="43">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="21">
+        <v>130</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="44">
+        <v>46068</v>
+      </c>
+      <c r="H14" s="43">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="17">
+        <v>150</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="43">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="21">
+        <v>150</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17">
+        <v>150</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="21">
+        <v>250</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17">
+        <v>150</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="43">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="21">
+        <v>150</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="17">
+        <v>90</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="43">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
+        <v>46067</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="21">
+        <v>150</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <v>46067</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="17">
+        <v>250</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>46068</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="21">
+        <v>240</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <v>46068</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17">
+        <v>150</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
+        <v>46068</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="21">
+        <v>130</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
+        <v>46068</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="17">
+        <v>240</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="19">
+        <v>46068</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="21">
+        <v>240</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
+        <v>46068</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="17">
+        <v>140</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
+        <v>46068</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="21">
+        <v>240</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="15">
+        <v>46068</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="17">
+        <v>240</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
+        <v>46068</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="21">
+        <v>240</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="15">
+        <v>46068</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="17">
+        <v>240</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E33" xr:uid="{B3618BCC-F43A-430A-BF2C-490209057340}">
+      <formula1>$Q$4:$Q$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C33" xr:uid="{9C6AC30B-3067-49E0-8E85-F70CCF49CC33}">
+      <formula1>$P$4:$P$10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,25 +5652,26 @@
     <col min="1" max="1" width="24.875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="12"/>
     <col min="3" max="3" width="10.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12"/>
+    <col min="7" max="7" width="14.125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="12"/>
     <col min="10" max="10" width="10.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="12"/>
+    <col min="14" max="14" width="14.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2064,7 +5726,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="15">
         <v>46068</v>
@@ -2102,7 +5764,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="19">
         <v>46068</v>
@@ -2140,7 +5802,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="15">
         <v>46068</v>
@@ -2178,7 +5840,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="19">
         <v>46068</v>
@@ -2216,7 +5878,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="15">
         <v>46068</v>
@@ -2254,7 +5916,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="19">
         <v>46068</v>
@@ -2290,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="22">
         <v>46068</v>
@@ -2384,7 +6046,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="32">
-        <f>SUM(L3:L43)</f>
+        <f>SUM(L3:L13)</f>
         <v>2100</v>
       </c>
       <c r="J13" s="25">
@@ -2402,7 +6064,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
-        <f>SUM(E4:E44)</f>
+        <f>SUM(E4:E24)</f>
         <v>3850</v>
       </c>
       <c r="C14" s="15">
@@ -2455,9 +6117,9 @@
       <c r="L16" s="34"/>
       <c r="M16" s="33"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="19">
         <v>46067</v>
@@ -2475,7 +6137,7 @@
       <c r="L17" s="34"/>
       <c r="M17" s="33"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <f>SUM(A14,H13)</f>
         <v>5950</v>
@@ -2496,7 +6158,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="33"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C19" s="19">
         <v>46067</v>
       </c>
@@ -2513,7 +6175,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="33"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="15">
         <v>46067</v>
       </c>
@@ -2532,7 +6194,7 @@
       <c r="L20" s="34"/>
       <c r="M20" s="33"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="19">
         <v>46067</v>
       </c>
@@ -2549,7 +6211,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="33"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="15">
         <v>46067</v>
       </c>
@@ -2566,7 +6228,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="33"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="19">
         <v>46067</v>
       </c>
@@ -2583,7 +6245,7 @@
       <c r="L23" s="34"/>
       <c r="M23" s="33"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="15">
         <v>46067</v>
       </c>
@@ -2600,89 +6262,326 @@
       <c r="L24" s="34"/>
       <c r="M24" s="33"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="34"/>
       <c r="M25" s="33"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="34"/>
       <c r="M26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="33"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="33"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="33"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="33"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="33"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="33"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="33"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="33"/>
-    </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F33" s="33"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="33"/>
-    </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F34" s="33"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="33"/>
-    </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C27"/>
+      <c r="D27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6">
+        <f>COUNTIF(RawData!D:D,"Banana Loaf")</f>
+        <v>9</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <f>COUNTIF(RawData!F:F,"Child")</f>
+        <v>0</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="6">
+        <f>COUNTIF(RawData!K:K,"Banana Loaf")</f>
+        <v>3</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <f>COUNTIF(RawData!M:M,"Child")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2">
+        <f>COUNTIF(RawData!D:D,"Cupcake")</f>
+        <v>2</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <f>COUNTIF(RawData!F:F,"Student")</f>
+        <v>2</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="2">
+        <f>COUNTIF(RawData!K:K,"Cupcake")</f>
+        <v>1</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <f>COUNTIF(RawData!M:M,"Student")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6">
+        <f>COUNTIF(RawData!D:D,"Tulip Cake")</f>
+        <v>2</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <f>COUNTIF(RawData!F:F,"Teenager")</f>
+        <v>0</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="6">
+        <f>COUNTIF(RawData!K:K,"Tulip Cake")</f>
+        <v>1</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30">
+        <f>COUNTIF(RawData!M:M,"Teenager")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2">
+        <f>COUNTIF(RawData!D:D,"Mini Cupcake")</f>
+        <v>3</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <f>COUNTIF(RawData!F:F,"Adult")</f>
+        <v>19</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="2">
+        <f>COUNTIF(RawData!K:K,"Mini Cupcake")</f>
+        <v>1</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <f>COUNTIF(RawData!M:M,"Adult")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="6">
+        <f>COUNTIF(RawData!D:D,"Brownies")</f>
+        <v>3</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <f>COUNTIF(RawData!F:F,"Elderly")</f>
+        <v>0</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="6">
+        <f>COUNTIF(RawData!K:K,"Brownies")</f>
+        <v>2</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32">
+        <f>COUNTIF(RawData!M:M,"Elderly")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <f>COUNTIF(RawData!D:D,"Egg Tart")</f>
+        <v>8</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33">
+        <v>13</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="2">
+        <f>COUNTIF(RawData!K:K,"Egg Tart")</f>
+        <v>8</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34"/>
+      <c r="D34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="8">
+        <f>COUNTIF(RawData!D:D,"Juice")</f>
+        <v>1</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="8">
+        <f>COUNTIF(RawData!K:K,"Juice")</f>
+        <v>1</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F35" s="33"/>
       <c r="L35" s="34"/>
       <c r="M35" s="33"/>
     </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F36" s="33"/>
       <c r="L36" s="34"/>
       <c r="M36" s="33"/>
     </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F37" s="33"/>
       <c r="L37" s="34"/>
     </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F38" s="33"/>
       <c r="L38" s="34"/>
     </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="L39" s="34"/>
     </row>
-    <row r="40" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="L40" s="34"/>
     </row>
-    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="L41" s="34"/>
     </row>
-    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="L42" s="34"/>
     </row>
   </sheetData>
@@ -2696,278 +6595,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:M19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="9" max="10" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <f>COUNTIF(RawData!D:D,"Banana Loaf")</f>
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <f>COUNTIF(RawData!F:F,"Child")</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="6">
-        <f>COUNTIF(RawData!K:K,"Banana Loaf")</f>
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3">
-        <f>COUNTIF(RawData!M:M,"Child")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2">
-        <f>COUNTIF(RawData!D:D,"Cupcake")</f>
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <f>COUNTIF(RawData!F:F,"Student")</f>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2">
-        <f>COUNTIF(RawData!K:K,"Cupcake")</f>
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <f>COUNTIF(RawData!M:M,"Student")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <f>COUNTIF(RawData!D:D,"Tulip Cake")</f>
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <f>COUNTIF(RawData!F:F,"Teenager")</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6">
-        <f>COUNTIF(RawData!K:K,"Tulip Cake")</f>
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <f>COUNTIF(RawData!M:M,"Teenager")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <f>COUNTIF(RawData!D:D,"Mini Cupcake")</f>
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <f>COUNTIF(RawData!F:F,"Adult")</f>
-        <v>19</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2">
-        <f>COUNTIF(RawData!K:K,"Mini Cupcake")</f>
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <f>COUNTIF(RawData!M:M,"Adult")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <f>COUNTIF(RawData!D:D,"Brownies")</f>
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <f>COUNTIF(RawData!F:F,"Elderly")</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="6">
-        <f>COUNTIF(RawData!K:K,"Brownies")</f>
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7">
-        <f>COUNTIF(RawData!M:M,"Elderly")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <f>COUNTIF(RawData!D:D,"Egg Tart")</f>
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2">
-        <f>COUNTIF(RawData!K:K,"Egg Tart")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8">
-        <f>COUNTIF(RawData!D:D,"Juice")</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="8">
-        <f>COUNTIF(RawData!K:K,"Juice")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
-  <pageSetup paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>